--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.03949391152865</v>
+        <v>89.23518403375772</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.408834312312</v>
+        <v>122.095515573413</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.34876310779975</v>
+        <v>110.4428909292508</v>
       </c>
       <c r="AD2" t="n">
-        <v>77039.49391152865</v>
+        <v>89235.18403375772</v>
       </c>
       <c r="AE2" t="n">
-        <v>105408.834312312</v>
+        <v>122095.515573413</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.938672207356896e-06</v>
+        <v>9.137836599255682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.075810185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>95348.76310779975</v>
+        <v>110442.8909292508</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.91116966813489</v>
+        <v>66.02151893579233</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.76364073286358</v>
+        <v>90.33355487176692</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.72374238925569</v>
+        <v>81.7122471787679</v>
       </c>
       <c r="AD3" t="n">
-        <v>53911.16966813489</v>
+        <v>66021.51893579232</v>
       </c>
       <c r="AE3" t="n">
-        <v>73763.64073286358</v>
+        <v>90333.55487176692</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.193389156068185e-06</v>
+        <v>1.145939145737342e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.453703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>66723.74238925568</v>
+        <v>81712.2471787679</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.96482734732709</v>
+        <v>78.40691075818962</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.20530165362975</v>
+        <v>107.2797943680863</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.02781321512818</v>
+        <v>97.04116136176044</v>
       </c>
       <c r="AD2" t="n">
-        <v>54964.82734732709</v>
+        <v>78406.91075818962</v>
       </c>
       <c r="AE2" t="n">
-        <v>75205.30165362975</v>
+        <v>107279.7943680863</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.878076323252565e-06</v>
+        <v>1.120452064973766e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>68027.81321512818</v>
+        <v>97041.16136176045</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.25911882495178</v>
+        <v>62.93757961164829</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.13498776899655</v>
+        <v>86.11397303467436</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.44140297141252</v>
+        <v>77.89537630998582</v>
       </c>
       <c r="AD3" t="n">
-        <v>51259.11882495179</v>
+        <v>62937.57961164829</v>
       </c>
       <c r="AE3" t="n">
-        <v>70134.98776899655</v>
+        <v>86113.97303467436</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.453317532116338e-06</v>
+        <v>1.230101917218757e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.436342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>63441.40297141252</v>
+        <v>77895.37630998582</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.00160193981537</v>
+        <v>66.84314606762523</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.94142122148141</v>
+        <v>91.45774136117095</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.93438031895588</v>
+        <v>82.72914288742922</v>
       </c>
       <c r="AD2" t="n">
-        <v>46001.60193981537</v>
+        <v>66843.14606762523</v>
       </c>
       <c r="AE2" t="n">
-        <v>62941.4212214814</v>
+        <v>91457.74136117095</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.584963258971982e-06</v>
+        <v>1.40242484374034e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.664930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>56934.38031895588</v>
+        <v>82729.14288742922</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.63947607622886</v>
+        <v>58.69661297700068</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.1824328728284</v>
+        <v>80.31129538690922</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.96151296357864</v>
+        <v>72.64649807281231</v>
       </c>
       <c r="AD2" t="n">
-        <v>47639.47607622886</v>
+        <v>58696.61297700067</v>
       </c>
       <c r="AE2" t="n">
-        <v>65182.43287282839</v>
+        <v>80311.29538690922</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.659322287881081e-06</v>
+        <v>1.352072658296267e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.52025462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>58961.51296357864</v>
+        <v>72646.4980728123</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.18633939817188</v>
+        <v>65.19397513758696</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.82594304516043</v>
+        <v>89.20127293840717</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.92536181419916</v>
+        <v>80.68802864395998</v>
       </c>
       <c r="AD2" t="n">
-        <v>45186.33939817188</v>
+        <v>65193.97513758697</v>
       </c>
       <c r="AE2" t="n">
-        <v>61825.94304516043</v>
+        <v>89201.27293840717</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.32777905694603e-06</v>
+        <v>1.409072799244221e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.879050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>55925.36181419916</v>
+        <v>80688.02864395999</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.2767284522611</v>
+        <v>80.94584825287285</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.36854673927725</v>
+        <v>110.7536806583271</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.88916262944485</v>
+        <v>100.1835048200918</v>
       </c>
       <c r="AD2" t="n">
-        <v>57276.7284522611</v>
+        <v>80945.84825287285</v>
       </c>
       <c r="AE2" t="n">
-        <v>78368.54673927726</v>
+        <v>110753.6806583271</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.629506272036572e-06</v>
+        <v>1.064406593145109e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.766203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>70889.16262944485</v>
+        <v>100183.5048200918</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.01951995673227</v>
+        <v>62.81149893830338</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.80715802714272</v>
+        <v>85.94146389511722</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.14486084000919</v>
+        <v>77.73933120058985</v>
       </c>
       <c r="AD3" t="n">
-        <v>51019.51995673228</v>
+        <v>62811.49893830338</v>
       </c>
       <c r="AE3" t="n">
-        <v>69807.15802714272</v>
+        <v>85941.46389511722</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.542335153279417e-06</v>
+        <v>1.237000961577468e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.381365740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>63144.86084000919</v>
+        <v>77739.33120058985</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.9714892350652</v>
+        <v>64.77116772841488</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.21441674233476</v>
+        <v>88.62276918823179</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.0360583725603</v>
+        <v>80.16473647976602</v>
       </c>
       <c r="AD2" t="n">
-        <v>54971.4892350652</v>
+        <v>64771.16772841488</v>
       </c>
       <c r="AE2" t="n">
-        <v>75214.41674233477</v>
+        <v>88622.76918823179</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.052137200671926e-06</v>
+        <v>1.387492850170983e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.081597222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>68036.05837256031</v>
+        <v>80164.73647976603</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.55898185140101</v>
+        <v>60.86902117203728</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.80878535703583</v>
+        <v>83.28368011924235</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.33721005280302</v>
+        <v>75.33520257806066</v>
       </c>
       <c r="AD2" t="n">
-        <v>49558.98185140101</v>
+        <v>60869.02117203728</v>
       </c>
       <c r="AE2" t="n">
-        <v>67808.78535703583</v>
+        <v>83283.68011924234</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.550790369171738e-06</v>
+        <v>1.283945859208487e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.471064814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>61337.21005280302</v>
+        <v>75335.20257806066</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.51065778786553</v>
+        <v>60.82069710850179</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.74266624139939</v>
+        <v>83.21756100360589</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.27740125276413</v>
+        <v>75.27539377802177</v>
       </c>
       <c r="AD3" t="n">
-        <v>49510.65778786552</v>
+        <v>60820.69710850179</v>
       </c>
       <c r="AE3" t="n">
-        <v>67742.66624139939</v>
+        <v>83217.56100360589</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.582025125178829e-06</v>
+        <v>1.29006782821965e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.459490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>61277.40125276413</v>
+        <v>75275.39377802177</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.60048985683026</v>
+        <v>64.3317079774063</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.97031079192514</v>
+        <v>88.02148096930624</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.10156534092546</v>
+        <v>79.62083436454125</v>
       </c>
       <c r="AD2" t="n">
-        <v>52600.48985683026</v>
+        <v>64331.7079774063</v>
       </c>
       <c r="AE2" t="n">
-        <v>71970.31079192515</v>
+        <v>88021.48096930624</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.175558344061693e-06</v>
+        <v>1.187376505649156e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.569444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>65101.56534092546</v>
+        <v>79620.83436454125</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.80150085685455</v>
+        <v>62.3621267768384</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.5088546763663</v>
+        <v>85.32661307890054</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.8750271423594</v>
+        <v>77.18316088332415</v>
       </c>
       <c r="AD3" t="n">
-        <v>50801.50085685455</v>
+        <v>62362.1267768384</v>
       </c>
       <c r="AE3" t="n">
-        <v>69508.8546763663</v>
+        <v>85326.61307890054</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.472711738924225e-06</v>
+        <v>1.244510280439403e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.450810185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>62875.0271423594</v>
+        <v>77183.16088332415</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.33616640281355</v>
+        <v>86.43653642698071</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.2910929498689</v>
+        <v>118.2662824502041</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.15103074555448</v>
+        <v>106.9791144409573</v>
       </c>
       <c r="AD2" t="n">
-        <v>62336.16640281356</v>
+        <v>86436.5364269807</v>
       </c>
       <c r="AE2" t="n">
-        <v>85291.09294986889</v>
+        <v>118266.2824502041</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.139507848552332e-06</v>
+        <v>9.574513308560349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.980324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>77151.03074555448</v>
+        <v>106979.1144409573</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.29116165357747</v>
+        <v>65.29876574692626</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.9153184145234</v>
+        <v>89.34465207314055</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.95638276234975</v>
+        <v>80.8177238753083</v>
       </c>
       <c r="AD3" t="n">
-        <v>53291.16165357747</v>
+        <v>65298.76574692626</v>
       </c>
       <c r="AE3" t="n">
-        <v>72915.3184145234</v>
+        <v>89344.65207314055</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.256028011644645e-06</v>
+        <v>1.165450568833937e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.447916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>65956.38276234975</v>
+        <v>80817.72387530831</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.21802811589437</v>
+        <v>59.25326025898269</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.97403329741296</v>
+        <v>81.07292475566153</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.67756415465928</v>
+        <v>73.33543860356465</v>
       </c>
       <c r="AD2" t="n">
-        <v>48218.02811589437</v>
+        <v>59253.26025898269</v>
       </c>
       <c r="AE2" t="n">
-        <v>65974.03329741296</v>
+        <v>81072.92475566153</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.647166124583251e-06</v>
+        <v>1.332422691473582e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.494212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>59677.56415465928</v>
+        <v>73335.43860356466</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.34640034847002</v>
+        <v>57.07699020991355</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.41318961563468</v>
+        <v>78.09525606426811</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.36112379970243</v>
+        <v>70.64195443289265</v>
       </c>
       <c r="AD2" t="n">
-        <v>46346.40034847002</v>
+        <v>57076.99020991355</v>
       </c>
       <c r="AE2" t="n">
-        <v>63413.18961563468</v>
+        <v>78095.25606426812</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.673284011208857e-06</v>
+        <v>1.396092748473011e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.586805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>57361.12379970243</v>
+        <v>70641.95443289264</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.54396745672795</v>
+        <v>65.98939700794405</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.31526553231301</v>
+        <v>90.28960423296547</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.36798404994651</v>
+        <v>81.67249112724853</v>
       </c>
       <c r="AD2" t="n">
-        <v>45543.96745672795</v>
+        <v>65989.39700794405</v>
       </c>
       <c r="AE2" t="n">
-        <v>62315.26553231301</v>
+        <v>90289.60423296547</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.488124095674378e-06</v>
+        <v>1.410424600092883e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.751736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>56367.98404994651</v>
+        <v>81672.49112724853</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.17442871312191</v>
+        <v>74.0285911946106</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.49208748926971</v>
+        <v>101.2891843833737</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.2872286131212</v>
+        <v>91.62228678611301</v>
       </c>
       <c r="AD2" t="n">
-        <v>55174.4287131219</v>
+        <v>74028.59119461059</v>
       </c>
       <c r="AE2" t="n">
-        <v>75492.0874892697</v>
+        <v>101289.1843833737</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.555211496228695e-06</v>
+        <v>1.321322033185327e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.449074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>68287.2286131212</v>
+        <v>91622.28678611301</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.85290740781929</v>
+        <v>62.46150456354434</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.57919138729321</v>
+        <v>85.46258615091007</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.93865101631366</v>
+        <v>77.30615687618054</v>
       </c>
       <c r="AD2" t="n">
-        <v>50852.90740781929</v>
+        <v>62461.50456354434</v>
       </c>
       <c r="AE2" t="n">
-        <v>69579.19138729321</v>
+        <v>85462.58615091007</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.391533369296873e-06</v>
+        <v>1.240327028899806e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.508680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>62938.65101631366</v>
+        <v>77306.15687618054</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.14148193464389</v>
+        <v>61.57948688977674</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.60578766901833</v>
+        <v>84.25577065778832</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.05814758272993</v>
+        <v>76.21451815994577</v>
       </c>
       <c r="AD3" t="n">
-        <v>50141.48193464389</v>
+        <v>61579.48688977674</v>
       </c>
       <c r="AE3" t="n">
-        <v>68605.78766901833</v>
+        <v>84255.77065778832</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.527523440984041e-06</v>
+        <v>1.266716965684908e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.456597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>62058.14758272993</v>
+        <v>76214.51815994577</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.89731806933754</v>
+        <v>83.78563862301453</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.95415306561384</v>
+        <v>114.6392071254621</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.1325637204271</v>
+        <v>103.6982020945754</v>
       </c>
       <c r="AD2" t="n">
-        <v>59897.31806933754</v>
+        <v>83785.63862301453</v>
       </c>
       <c r="AE2" t="n">
-        <v>81954.15306561383</v>
+        <v>114639.2071254621</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.358673462988717e-06</v>
+        <v>1.005497324500961e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.881944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>74132.5637204271</v>
+        <v>103698.2020945754</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.45403519963464</v>
+        <v>64.35561455773838</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.76992506882674</v>
+        <v>88.05419100720046</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.92030414999635</v>
+        <v>79.65042260232765</v>
       </c>
       <c r="AD3" t="n">
-        <v>52454.03519963464</v>
+        <v>64355.61455773837</v>
       </c>
       <c r="AE3" t="n">
-        <v>71769.92506882673</v>
+        <v>88054.19100720045</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.345162598056896e-06</v>
+        <v>1.190601379228546e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.433449074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>64920.30414999636</v>
+        <v>79650.42260232766</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.99235497974533</v>
+        <v>84.22748956019129</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.2936514604805</v>
+        <v>115.2437670707947</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.67615209304984</v>
+        <v>104.2450636872308</v>
       </c>
       <c r="AD2" t="n">
-        <v>65992.35497974533</v>
+        <v>84227.48956019129</v>
       </c>
       <c r="AE2" t="n">
-        <v>90293.6514604805</v>
+        <v>115243.7670707947</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.64829905826867e-06</v>
+        <v>1.162504318749137e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81676.15209304984</v>
+        <v>104245.0636872308</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.92300769415235</v>
+        <v>57.82229552306676</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.20212922411761</v>
+        <v>79.11501567427365</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.07476811923569</v>
+        <v>71.56438961696117</v>
       </c>
       <c r="AD2" t="n">
-        <v>46923.00769415235</v>
+        <v>57822.29552306676</v>
       </c>
       <c r="AE2" t="n">
-        <v>64202.12922411761</v>
+        <v>79115.01567427364</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.687183331765935e-06</v>
+        <v>1.37708060165158e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.543402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>58074.76811923568</v>
+        <v>71564.38961696117</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.84648235403939</v>
+        <v>60.02253833679222</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.83391211148677</v>
+        <v>82.12548495987355</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.45537734156565</v>
+        <v>74.28754393916455</v>
       </c>
       <c r="AD2" t="n">
-        <v>48846.48235403938</v>
+        <v>60022.53833679222</v>
       </c>
       <c r="AE2" t="n">
-        <v>66833.91211148677</v>
+        <v>82125.48495987355</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.610049057491176e-06</v>
+        <v>1.309572417080657e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.476851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>60455.37734156565</v>
+        <v>74287.54393916455</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.93864305048275</v>
+        <v>60.11469903323558</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.9600104422035</v>
+        <v>82.25158329059026</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.56944102457894</v>
+        <v>74.40160762217782</v>
       </c>
       <c r="AD3" t="n">
-        <v>48938.64305048274</v>
+        <v>60114.69903323558</v>
       </c>
       <c r="AE3" t="n">
-        <v>66960.01044220349</v>
+        <v>82251.58329059026</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.60852085331639e-06</v>
+        <v>1.309269651697593e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.476851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>60569.44102457893</v>
+        <v>74401.60762217782</v>
       </c>
     </row>
   </sheetData>
